--- a/Projeto/Geração das Amostras/excel/planilha_3.xlsx
+++ b/Projeto/Geração das Amostras/excel/planilha_3.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="61">
   <si>
     <t>exam_id</t>
   </si>
@@ -30,21 +30,24 @@
     <t>comentario</t>
   </si>
   <si>
+    <t>Interferência</t>
+  </si>
+  <si>
+    <t>Não</t>
+  </si>
+  <si>
+    <t>Nenhuma</t>
+  </si>
+  <si>
+    <t>Outra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extrassintole ventricular polimorfica </t>
+  </si>
+  <si>
     <t>AF</t>
   </si>
   <si>
-    <t>Não</t>
-  </si>
-  <si>
-    <t>Nenhuma</t>
-  </si>
-  <si>
-    <t>Outra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extrassintole ventricular polimorfica </t>
-  </si>
-  <si>
     <t>RBBB</t>
   </si>
   <si>
@@ -115,6 +118,87 @@
   </si>
   <si>
     <t xml:space="preserve">Parada sinusal </t>
+  </si>
+  <si>
+    <t>Presença de isquemia de parede antero septal com supra de ST de V1 a V3</t>
+  </si>
+  <si>
+    <t>Presença de isquemia de parede antero septal, supra de V1 e V1, sobrecarga AD e VD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sobrecarga VE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sobrecarga VE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arritimia sinusal, interferência </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interferência </t>
+  </si>
+  <si>
+    <t>Sobrecarga VE</t>
+  </si>
+  <si>
+    <t>Presença de extrassistole interpolada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sobrecarga VE e AE </t>
+  </si>
+  <si>
+    <t>SB</t>
+  </si>
+  <si>
+    <t>Presença de extrassistole supraventricular monomorfica isolada</t>
+  </si>
+  <si>
+    <t>Taquicardia ventricular</t>
+  </si>
+  <si>
+    <t>Isquemia de parede anterior e inferior, supra de ST em V1 a V4, aVF e D3, infra de ST em V6, aVL e D1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extrassistole interpolada isolada, com interferência </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presença de sobrecarga de VE </t>
+  </si>
+  <si>
+    <t>Isquemia de parede antero septal, supra de ST de V2 e V3.</t>
+  </si>
+  <si>
+    <t>Presença de sobrecarga VE</t>
+  </si>
+  <si>
+    <t>Isquemia de parede antero septal, supra em V1 a V3. Sobrecarga de VE com alargamento de QRS</t>
+  </si>
+  <si>
+    <t>Sonrecarga biatrial</t>
+  </si>
+  <si>
+    <t>Presença de sobrecarga de AE e VE</t>
+  </si>
+  <si>
+    <t>Sobrecarga de AE, onda q patologica em V1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sobrecarga de VE e AE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arritmia sinusal, Q patológica em V1 e V2, sobrecarga de VE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sobrecarga biatrial e de VE </t>
+  </si>
+  <si>
+    <t>Sobrecarga biatrial e de VE. Q patológica em V1</t>
+  </si>
+  <si>
+    <t>Sobrecarga de VD. Isquemia de parede antero septal, supra de ST em V1 a V4. Interferência.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sobrecarga de VE </t>
   </si>
 </sst>
 </file>
@@ -468,7 +552,7 @@
         <v>1183535.0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>5</v>
@@ -523,7 +607,7 @@
         <v>1205125.0</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>5</v>
@@ -552,7 +636,7 @@
         <v>5</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14">
@@ -566,7 +650,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15">
@@ -574,7 +658,7 @@
         <v>1249940.0</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>5</v>
@@ -585,7 +669,7 @@
         <v>1253197.0</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>5</v>
@@ -596,7 +680,7 @@
         <v>1255202.0</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>5</v>
@@ -613,7 +697,7 @@
         <v>5</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
@@ -621,7 +705,7 @@
         <v>1266486.0</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>5</v>
@@ -632,13 +716,13 @@
         <v>1269774.0</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
@@ -652,7 +736,7 @@
         <v>5</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
@@ -666,7 +750,7 @@
         <v>5</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
@@ -680,7 +764,7 @@
         <v>5</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
@@ -694,7 +778,7 @@
         <v>5</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
@@ -708,7 +792,7 @@
         <v>5</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
@@ -716,7 +800,7 @@
         <v>1332819.0</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>5</v>
@@ -733,7 +817,7 @@
         <v>5</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
@@ -747,7 +831,7 @@
         <v>5</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
@@ -758,10 +842,10 @@
         <v>7</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
@@ -769,13 +853,13 @@
         <v>1378239.0</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
@@ -789,7 +873,7 @@
         <v>5</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
@@ -803,7 +887,7 @@
         <v>5</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
@@ -817,7 +901,7 @@
         <v>5</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
@@ -831,7 +915,7 @@
         <v>5</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
@@ -845,7 +929,7 @@
         <v>5</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
@@ -853,7 +937,7 @@
         <v>1430611.0</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>5</v>
@@ -870,7 +954,7 @@
         <v>5</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
@@ -884,7 +968,7 @@
         <v>5</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
@@ -892,13 +976,13 @@
         <v>1448137.0</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
@@ -917,7 +1001,7 @@
         <v>1462378.0</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>5</v>
@@ -945,7 +1029,7 @@
         <v>5</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -959,267 +1043,515 @@
         <v>5</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="2">
         <v>1499699.0</v>
       </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
+      <c r="B45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="2">
         <v>1512163.0</v>
       </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
+      <c r="B46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="2">
         <v>1517407.0</v>
       </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
+      <c r="B47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="2">
         <v>1526329.0</v>
       </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
+      <c r="B48" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="2">
         <v>1533349.0</v>
       </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
+      <c r="B49" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="2">
         <v>1536672.0</v>
       </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
+      <c r="B50" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="2">
         <v>1537000.0</v>
       </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
+      <c r="B51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="2">
         <v>1545590.0</v>
       </c>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
+      <c r="B52" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="2">
         <v>1556148.0</v>
       </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
+      <c r="B53" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="2">
         <v>1572771.0</v>
       </c>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
+      <c r="B54" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="2">
         <v>1576237.0</v>
       </c>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
+      <c r="B55" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="2">
         <v>1579453.0</v>
       </c>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
+      <c r="B56" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="2">
         <v>1586907.0</v>
       </c>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
+      <c r="B57" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="2">
         <v>1592697.0</v>
       </c>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
+      <c r="B58" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="2">
         <v>1610032.0</v>
       </c>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
+      <c r="B59" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="2">
         <v>1615431.0</v>
       </c>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
+      <c r="B60" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="2">
         <v>1621481.0</v>
       </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
+      <c r="B61" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="2">
         <v>1621612.0</v>
       </c>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
+      <c r="B62" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="2">
         <v>1627203.0</v>
       </c>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
+      <c r="B63" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="2">
         <v>1631695.0</v>
       </c>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
+      <c r="B64" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="2">
         <v>1631949.0</v>
       </c>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
+      <c r="B65" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="2">
         <v>1635920.0</v>
       </c>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
+      <c r="B66" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="2">
         <v>1643428.0</v>
       </c>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
+      <c r="B67" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="2">
         <v>1667136.0</v>
       </c>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
+      <c r="B68" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="2">
         <v>1671946.0</v>
       </c>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
+      <c r="B69" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="2">
         <v>1704451.0</v>
       </c>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
+      <c r="B70" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="2">
         <v>1709495.0</v>
       </c>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
+      <c r="B71" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="2">
         <v>1712446.0</v>
       </c>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
+      <c r="B72" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="2">
         <v>1715226.0</v>
       </c>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
+      <c r="B73" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="2">
         <v>1721943.0</v>
       </c>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
+      <c r="B74" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="2">
         <v>1733481.0</v>
       </c>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
+      <c r="B75" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="2">
         <v>1735139.0</v>
       </c>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
+      <c r="B76" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="2">
         <v>1743775.0</v>
       </c>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
+      <c r="B77" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="2">
         <v>1760039.0</v>
       </c>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
+      <c r="B78" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="2">
         <v>1776228.0</v>
       </c>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
+      <c r="B79" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="2">
         <v>1777930.0</v>
       </c>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
+      <c r="B80" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" s="3"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="2">
         <v>1782249.0</v>
       </c>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
+      <c r="B81" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="B82" s="2"/>
